--- a/excel/DATABASE_MENU_VENDITA_BACKUP_INVERNO.xlsx
+++ b/excel/DATABASE_MENU_VENDITA_BACKUP_INVERNO.xlsx
@@ -2299,487 +2299,487 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2787,79 +2787,79 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2867,439 +2867,439 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3376,7 +3376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="false"/>
@@ -3384,268 +3384,268 @@
   <dimension ref="A1:AH50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA13" activeCellId="0" sqref="AA13"/>
+      <selection pane="topLeft" activeCell="AA13" activeCellId="1" sqref="21:22 AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="2" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="2" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="5.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="5.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="3" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="10.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="15"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20" t="s">
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="21" t="s">
+      <c r="Z3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="22" t="s">
+      <c r="AA3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="22" t="s">
+      <c r="AB3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="22" t="s">
+      <c r="AC3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AD3" s="22" t="s">
+      <c r="AD3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="22" t="s">
+      <c r="AE3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="21"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="22"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="24" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="U4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="25" t="s">
+      <c r="V4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="26" t="s">
+      <c r="W4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="25" t="s">
+      <c r="X4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="27"/>
+      <c r="Y4" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="28"/>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="31" t="s">
         <v>37</v>
       </c>
@@ -3692,10 +3692,10 @@
       <c r="AH5" s="44"/>
     </row>
     <row r="6" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="31" t="s">
         <v>42</v>
       </c>
@@ -3748,7 +3748,7 @@
       <c r="AH6" s="44"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="39" t="s">
         <v>49</v>
       </c>
@@ -3758,17 +3758,17 @@
       <c r="E7" s="46"/>
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="31" t="s">
         <v>37</v>
       </c>
@@ -3815,9 +3815,9 @@
       <c r="AH8" s="44"/>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="13"/>
       <c r="E9" s="47" t="s">
         <v>51</v>
       </c>
@@ -3870,10 +3870,10 @@
       <c r="AH9" s="59"/>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="60" t="s">
         <v>58</v>
       </c>
@@ -3926,10 +3926,10 @@
       <c r="AH10" s="67"/>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="60" t="s">
         <v>63</v>
       </c>
@@ -3976,10 +3976,10 @@
       <c r="AH11" s="67"/>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="31" t="s">
         <v>67</v>
       </c>
@@ -4032,10 +4032,10 @@
       <c r="AH12" s="67"/>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="31" t="s">
         <v>72</v>
       </c>
@@ -4090,10 +4090,10 @@
       <c r="AH13" s="67"/>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="31" t="s">
         <v>79</v>
       </c>
@@ -4142,10 +4142,10 @@
       <c r="AH14" s="67"/>
     </row>
     <row r="15" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="60" t="s">
         <v>83</v>
       </c>
@@ -4194,10 +4194,10 @@
       <c r="AH15" s="67"/>
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="31" t="s">
         <v>87</v>
       </c>
@@ -4246,10 +4246,10 @@
       <c r="AH16" s="67"/>
     </row>
     <row r="17" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="31" t="s">
         <v>91</v>
       </c>
@@ -4304,10 +4304,10 @@
       <c r="AH17" s="67"/>
     </row>
     <row r="18" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="31" t="s">
         <v>96</v>
       </c>
@@ -4358,10 +4358,10 @@
       <c r="AH18" s="44"/>
     </row>
     <row r="19" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="60" t="s">
         <v>101</v>
       </c>
@@ -4416,10 +4416,10 @@
       <c r="AH19" s="67"/>
     </row>
     <row r="20" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="60" t="s">
         <v>106</v>
       </c>
@@ -4476,8 +4476,8 @@
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="72"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="60" t="s">
         <v>111</v>
       </c>
@@ -4532,8 +4532,8 @@
     <row r="22" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="72"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="60" t="s">
         <v>116</v>
       </c>
@@ -4582,8 +4582,8 @@
     <row r="23" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="72"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="60" t="s">
         <v>120</v>
       </c>
@@ -4674,10 +4674,10 @@
       <c r="AH24" s="84"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="85" t="s">
         <v>124</v>
       </c>
@@ -4688,25 +4688,25 @@
         <v>126</v>
       </c>
       <c r="H25" s="86"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
       <c r="T25" s="83" t="n">
         <v>1</v>
       </c>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12" t="n">
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Z25" s="85" t="s">
@@ -4721,13 +4721,13 @@
       <c r="AC25" s="89"/>
       <c r="AD25" s="87"/>
       <c r="AE25" s="88"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="12"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="90"/>
       <c r="D26" s="90"/>
       <c r="E26" s="85" t="s">
@@ -4769,13 +4769,13 @@
       <c r="AC26" s="87"/>
       <c r="AD26" s="87"/>
       <c r="AE26" s="87"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
       <c r="AH26" s="91"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="90"/>
       <c r="D27" s="90"/>
       <c r="E27" s="85" t="s">
@@ -4819,15 +4819,15 @@
       <c r="AC27" s="87"/>
       <c r="AD27" s="87"/>
       <c r="AE27" s="87"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
       <c r="AH27" s="91"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="85" t="s">
         <v>137</v>
       </c>
@@ -4838,25 +4838,25 @@
         <v>126</v>
       </c>
       <c r="H28" s="86"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
       <c r="T28" s="83" t="n">
         <v>1</v>
       </c>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12" t="n">
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Z28" s="85" t="s">
@@ -4871,9 +4871,9 @@
       <c r="AC28" s="89"/>
       <c r="AD28" s="87"/>
       <c r="AE28" s="88"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AC30" s="92"/>
@@ -4979,8 +4979,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4989,23 +4989,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFC5E0B4"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="21:22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="37.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="37.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="100" width="42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="101" width="31.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="62.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="62.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="102" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="103" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="103" width="8"/>
@@ -5018,14 +5018,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="103" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="103" width="8.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="103" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="103" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="103" width="7.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="103" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="103" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="103" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="8.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="8.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="103" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="7.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5089,7 +5089,7 @@
       <c r="E3" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="114" t="s">
@@ -5114,7 +5114,7 @@
       <c r="V3" s="115"/>
       <c r="W3" s="115"/>
       <c r="X3" s="116"/>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="21" t="s">
         <v>10</v>
       </c>
       <c r="Z3" s="46" t="s">
@@ -5139,7 +5139,7 @@
         <v>152</v>
       </c>
       <c r="E4" s="113"/>
-      <c r="F4" s="18"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="114"/>
       <c r="H4" s="119" t="s">
         <v>20</v>
@@ -5202,8 +5202,8 @@
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="117"/>
       <c r="B5" s="117"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="0"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="32" t="s">
         <v>153</v>
       </c>
@@ -5213,7 +5213,7 @@
       <c r="G5" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="121"/>
       <c r="J5" s="121"/>
       <c r="K5" s="121" t="n">
@@ -5257,7 +5257,7 @@
       <c r="G6" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="121" t="n">
         <v>1</v>
       </c>
@@ -5303,7 +5303,7 @@
       <c r="G7" s="120" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="121"/>
       <c r="J7" s="121"/>
       <c r="K7" s="121" t="n">
@@ -5347,7 +5347,7 @@
       <c r="G8" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="121"/>
       <c r="J8" s="121"/>
       <c r="K8" s="121" t="n">
@@ -5391,7 +5391,7 @@
       <c r="G9" s="120" t="s">
         <v>167</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="121" t="n">
         <v>1</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="G10" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="121"/>
       <c r="J10" s="121"/>
       <c r="K10" s="121" t="n">
@@ -5481,7 +5481,7 @@
       <c r="G11" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="121"/>
       <c r="J11" s="121"/>
       <c r="K11" s="121" t="n">
@@ -5531,7 +5531,7 @@
       <c r="G12" s="120" t="s">
         <v>176</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="121" t="n">
         <v>1</v>
       </c>
@@ -5583,7 +5583,7 @@
       <c r="G13" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="23"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="121"/>
       <c r="J13" s="121"/>
       <c r="K13" s="121" t="n">
@@ -5631,7 +5631,7 @@
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="120"/>
-      <c r="H14" s="23"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="121"/>
       <c r="J14" s="121"/>
       <c r="K14" s="121"/>
@@ -5667,7 +5667,7 @@
       <c r="G15" s="120" t="s">
         <v>184</v>
       </c>
-      <c r="H15" s="23"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="121"/>
       <c r="J15" s="121"/>
       <c r="K15" s="121"/>
@@ -5705,7 +5705,7 @@
       <c r="G16" s="120" t="s">
         <v>187</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="121"/>
       <c r="J16" s="121"/>
       <c r="K16" s="121"/>
@@ -5741,7 +5741,7 @@
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="120"/>
-      <c r="H17" s="23"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="121"/>
       <c r="J17" s="121"/>
       <c r="K17" s="121"/>
@@ -5777,7 +5777,7 @@
       <c r="G18" s="120" t="s">
         <v>192</v>
       </c>
-      <c r="H18" s="23"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="121" t="n">
         <v>1</v>
       </c>
@@ -5817,7 +5817,7 @@
       <c r="G19" s="120" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="23"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="121" t="n">
         <v>1</v>
       </c>
@@ -5852,30 +5852,30 @@
       <c r="D20" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="0"/>
-      <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
-      <c r="Q20" s="0"/>
-      <c r="R20" s="0"/>
-      <c r="S20" s="0"/>
-      <c r="T20" s="0"/>
-      <c r="U20" s="0"/>
-      <c r="V20" s="0"/>
-      <c r="W20" s="0"/>
-      <c r="X20" s="0"/>
-      <c r="Y20" s="0"/>
-      <c r="Z20" s="0"/>
-      <c r="AA20" s="0"/>
-      <c r="AB20" s="0"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="117"/>
@@ -5891,7 +5891,7 @@
       <c r="G21" s="120" t="s">
         <v>200</v>
       </c>
-      <c r="H21" s="23"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="121"/>
       <c r="J21" s="121"/>
       <c r="K21" s="121"/>
@@ -5929,7 +5929,7 @@
       <c r="G22" s="120" t="s">
         <v>203</v>
       </c>
-      <c r="H22" s="23"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="121"/>
       <c r="J22" s="121"/>
       <c r="K22" s="121" t="n">
@@ -5969,7 +5969,7 @@
       <c r="G23" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="121"/>
       <c r="J23" s="121"/>
       <c r="K23" s="121"/>
@@ -6385,24 +6385,24 @@
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
       <c r="G33" s="83"/>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
-      <c r="K33" s="0"/>
-      <c r="L33" s="0"/>
-      <c r="M33" s="0"/>
-      <c r="N33" s="0"/>
-      <c r="O33" s="0"/>
-      <c r="P33" s="0"/>
-      <c r="Q33" s="0"/>
-      <c r="R33" s="0"/>
-      <c r="S33" s="0"/>
-      <c r="T33" s="0"/>
-      <c r="U33" s="0"/>
-      <c r="V33" s="0"/>
-      <c r="W33" s="0"/>
-      <c r="X33" s="0"/>
-      <c r="Y33" s="0"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
       <c r="Z33" s="83"/>
       <c r="AA33" s="83"/>
       <c r="AB33" s="121"/>
@@ -6615,7 +6615,7 @@
       <c r="AB38" s="121"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="123"/>
       <c r="C39" s="121"/>
       <c r="D39" s="121"/>
@@ -6661,7 +6661,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="123"/>
       <c r="C40" s="121"/>
       <c r="D40" s="121"/>
@@ -6707,8 +6707,8 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="121"/>
       <c r="D41" s="121"/>
       <c r="E41" s="38" t="s">
@@ -6768,7 +6768,7 @@
       <c r="F43" s="101" t="s">
         <v>256</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AB43" s="149" t="n">
@@ -6777,8 +6777,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6787,7 +6787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="false"/>
@@ -6797,16 +6797,16 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AB16" activeCellId="0" sqref="AB16"/>
+      <selection pane="bottomLeft" activeCell="AB16" activeCellId="1" sqref="21:22 AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="37.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="37.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="100" width="42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="101" width="35.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="101" width="31.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="38.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="38.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="102" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="103" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="103" width="8"/>
@@ -6819,14 +6819,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="103" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="103" width="8.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="103" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="103" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="103" width="7.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="103" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="103" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="103" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="8.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="8.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="103" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="7.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6890,7 +6890,7 @@
       <c r="E3" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="114" t="s">
@@ -6915,7 +6915,7 @@
       <c r="V3" s="115"/>
       <c r="W3" s="115"/>
       <c r="X3" s="116"/>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="21" t="s">
         <v>10</v>
       </c>
       <c r="Z3" s="46" t="s">
@@ -6929,8 +6929,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
         <v>260</v>
       </c>
       <c r="C4" s="121" t="s">
@@ -6945,55 +6945,55 @@
       <c r="H4" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="U4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="25" t="s">
+      <c r="V4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="26" t="s">
+      <c r="W4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="25" t="s">
+      <c r="X4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="25"/>
+      <c r="Y4" s="26"/>
       <c r="Z4" s="154"/>
       <c r="AA4" s="154"/>
       <c r="AB4" s="154"/>
@@ -7335,7 +7335,7 @@
       <c r="G12" s="120" t="s">
         <v>184</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="121"/>
       <c r="J12" s="121"/>
       <c r="K12" s="121"/>
@@ -7734,8 +7734,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="121" t="s">
         <v>315</v>
       </c>
@@ -7770,8 +7770,8 @@
       <c r="AB21" s="135"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="121"/>
       <c r="D22" s="82"/>
       <c r="E22" s="38" t="s">
@@ -7808,8 +7808,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="121"/>
       <c r="D23" s="82"/>
       <c r="E23" s="38" t="s">
@@ -7846,8 +7846,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="121"/>
       <c r="D24" s="82"/>
       <c r="E24" s="38" t="s">
@@ -7880,8 +7880,8 @@
       <c r="AB24" s="180"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="121"/>
       <c r="D25" s="82"/>
       <c r="E25" s="38" t="s">
@@ -7914,8 +7914,8 @@
       <c r="AB25" s="180"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="121"/>
       <c r="D26" s="82"/>
       <c r="E26" s="38" t="s">
@@ -7948,8 +7948,8 @@
       <c r="AB26" s="180"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="121"/>
       <c r="D27" s="82"/>
       <c r="E27" s="38" t="s">
@@ -7982,8 +7982,8 @@
       <c r="AB27" s="180"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="121"/>
       <c r="D28" s="82"/>
       <c r="E28" s="38" t="s">
@@ -8016,8 +8016,8 @@
       <c r="AB28" s="180"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="121"/>
       <c r="D29" s="82"/>
       <c r="E29" s="38" t="s">
@@ -8050,8 +8050,8 @@
       <c r="AB29" s="180"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="121"/>
       <c r="D30" s="121"/>
       <c r="E30" s="38" t="s">
@@ -8088,8 +8088,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="121"/>
       <c r="D31" s="121"/>
       <c r="E31" s="38" t="s">
@@ -8128,8 +8128,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="121"/>
       <c r="D32" s="121"/>
       <c r="E32" s="38" t="s">
@@ -8168,8 +8168,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="121"/>
       <c r="D33" s="121"/>
       <c r="E33" s="38" t="s">
@@ -8208,8 +8208,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="121"/>
       <c r="D34" s="121"/>
       <c r="E34" s="38" t="s">
@@ -8246,8 +8246,8 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="121"/>
       <c r="D35" s="121"/>
       <c r="E35" s="38" t="s">
@@ -8284,8 +8284,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="121"/>
       <c r="D36" s="121"/>
       <c r="E36" s="38" t="s">
@@ -8322,8 +8322,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="121"/>
       <c r="D37" s="121"/>
       <c r="E37" s="38" t="s">
@@ -8360,8 +8360,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="121"/>
       <c r="D38" s="121"/>
       <c r="E38" s="38" t="s">
@@ -8398,8 +8398,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="121"/>
       <c r="D39" s="121"/>
       <c r="E39" s="38" t="s">
@@ -8436,8 +8436,8 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="121"/>
       <c r="D40" s="121"/>
       <c r="E40" s="38" t="s">
@@ -8470,8 +8470,8 @@
       <c r="AB40" s="180"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="121"/>
       <c r="D41" s="121"/>
       <c r="E41" s="38" t="s">
@@ -8512,8 +8512,8 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="121"/>
       <c r="D42" s="121"/>
       <c r="E42" s="38" t="s">
@@ -8552,8 +8552,8 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="121"/>
       <c r="D43" s="121"/>
       <c r="E43" s="38" t="s">
@@ -8592,8 +8592,8 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="121"/>
       <c r="D44" s="121"/>
       <c r="E44" s="38" t="s">
@@ -8633,7 +8633,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="183"/>
-      <c r="B45" s="12"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="121"/>
       <c r="D45" s="121"/>
       <c r="E45" s="38" t="s">
@@ -8675,7 +8675,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="183"/>
-      <c r="B46" s="12"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="121"/>
       <c r="D46" s="121"/>
       <c r="E46" s="38" t="s">
@@ -8714,7 +8714,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="184"/>
       <c r="C47" s="121"/>
       <c r="D47" s="121"/>
@@ -8755,7 +8755,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="185"/>
-      <c r="B48" s="12"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="186"/>
       <c r="D48" s="121"/>
       <c r="E48" s="38" t="s">
@@ -8795,8 +8795,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8805,7 +8805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="false"/>
@@ -8813,36 +8813,36 @@
   <dimension ref="A1:AN1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="1" sqref="21:22 E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="46.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="37.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="10" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="37" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="46.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="24.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="38.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="37.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="10" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="8.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="37" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="10.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8850,8 +8850,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="188"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="189"/>
       <c r="H1" s="189"/>
       <c r="I1" s="189"/>
@@ -8888,52 +8888,52 @@
       <c r="AN1" s="189"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
       <c r="AN2" s="35"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8943,44 +8943,44 @@
       <c r="B3" s="112" t="s">
         <v>372</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
       <c r="X3" s="190"/>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="23" t="s">
+      <c r="Z3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="AA3" s="191" t="s">
@@ -8989,33 +8989,33 @@
       <c r="AB3" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="23" t="s">
+      <c r="AC3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AD3" s="23" t="s">
+      <c r="AD3" s="24" t="s">
         <v>15</v>
       </c>
       <c r="AE3" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="23" t="s">
+      <c r="AF3" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="AG3" s="23" t="s">
+      <c r="AG3" s="24" t="s">
         <v>375</v>
       </c>
       <c r="AH3" s="192" t="s">
         <v>376</v>
       </c>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
     </row>
     <row r="4" s="195" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="193" t="s">
         <v>377</v>
       </c>
@@ -9025,55 +9025,55 @@
       <c r="H4" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="U4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="25" t="s">
+      <c r="V4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="26" t="s">
+      <c r="W4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="25" t="s">
+      <c r="X4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="25"/>
+      <c r="Y4" s="26"/>
       <c r="Z4" s="181"/>
       <c r="AA4" s="181"/>
       <c r="AB4" s="181"/>
@@ -9091,8 +9091,8 @@
       <c r="AN4" s="181"/>
     </row>
     <row r="5" s="195" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="181"/>
       <c r="D5" s="181"/>
       <c r="E5" s="196" t="s">
@@ -9105,44 +9105,44 @@
         <v>381</v>
       </c>
       <c r="H5" s="198"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="23"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="24"/>
       <c r="AA5" s="199"/>
       <c r="AB5" s="81" t="n">
         <v>6</v>
       </c>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
       <c r="AE5" s="200"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
       <c r="AH5" s="192"/>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="23"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
       <c r="AK5" s="200"/>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="23"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
       <c r="AN5" s="192"/>
     </row>
     <row r="6" s="195" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="181"/>
       <c r="D6" s="181"/>
       <c r="E6" s="196" t="s">
@@ -9155,44 +9155,44 @@
         <v>384</v>
       </c>
       <c r="H6" s="198"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="23"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="24"/>
       <c r="AA6" s="199"/>
       <c r="AB6" s="81" t="n">
         <v>6</v>
       </c>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
       <c r="AE6" s="200"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
       <c r="AH6" s="192"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
       <c r="AK6" s="200"/>
-      <c r="AL6" s="23"/>
-      <c r="AM6" s="23"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
       <c r="AN6" s="192"/>
     </row>
     <row r="7" s="195" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="181"/>
       <c r="D7" s="181"/>
       <c r="E7" s="196" t="s">
@@ -9205,44 +9205,44 @@
         <v>387</v>
       </c>
       <c r="H7" s="198"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="23"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="24"/>
       <c r="AA7" s="199"/>
       <c r="AB7" s="81" t="n">
         <v>6</v>
       </c>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
       <c r="AE7" s="200"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
       <c r="AH7" s="192"/>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="23"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
       <c r="AK7" s="200"/>
-      <c r="AL7" s="23"/>
-      <c r="AM7" s="23"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="24"/>
       <c r="AN7" s="192"/>
     </row>
     <row r="8" s="195" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="181"/>
       <c r="D8" s="181"/>
       <c r="E8" s="196" t="s">
@@ -9255,44 +9255,44 @@
         <v>390</v>
       </c>
       <c r="H8" s="198"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="23"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="24"/>
       <c r="AA8" s="199"/>
       <c r="AB8" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
       <c r="AE8" s="192"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
       <c r="AH8" s="192"/>
-      <c r="AI8" s="23"/>
-      <c r="AJ8" s="23"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
       <c r="AK8" s="192"/>
-      <c r="AL8" s="23"/>
-      <c r="AM8" s="23"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="24"/>
       <c r="AN8" s="192"/>
     </row>
     <row r="9" s="195" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="181"/>
       <c r="D9" s="181"/>
       <c r="E9" s="196" t="s">
@@ -9305,44 +9305,44 @@
         <v>393</v>
       </c>
       <c r="H9" s="198"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="23"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="24"/>
       <c r="AA9" s="199"/>
       <c r="AB9" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
       <c r="AE9" s="192"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
       <c r="AH9" s="192"/>
-      <c r="AI9" s="23"/>
-      <c r="AJ9" s="23"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
       <c r="AK9" s="192"/>
-      <c r="AL9" s="23"/>
-      <c r="AM9" s="23"/>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="24"/>
       <c r="AN9" s="192"/>
     </row>
     <row r="10" s="195" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="181"/>
       <c r="D10" s="181"/>
       <c r="E10" s="196" t="s">
@@ -9355,44 +9355,44 @@
         <v>396</v>
       </c>
       <c r="H10" s="198"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="23"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="24"/>
       <c r="AA10" s="199"/>
       <c r="AB10" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
       <c r="AE10" s="192"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
       <c r="AH10" s="192"/>
-      <c r="AI10" s="23"/>
-      <c r="AJ10" s="23"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
       <c r="AK10" s="192"/>
-      <c r="AL10" s="23"/>
-      <c r="AM10" s="23"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
       <c r="AN10" s="192"/>
     </row>
     <row r="11" s="195" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="181"/>
       <c r="D11" s="181"/>
       <c r="E11" s="196" t="s">
@@ -9403,54 +9403,54 @@
       </c>
       <c r="G11" s="120"/>
       <c r="H11" s="198"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="23"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="24"/>
       <c r="AA11" s="201" t="s">
         <v>399</v>
       </c>
       <c r="AB11" s="42" t="n">
         <v>7</v>
       </c>
-      <c r="AC11" s="23"/>
+      <c r="AC11" s="24"/>
       <c r="AD11" s="201" t="s">
         <v>400</v>
       </c>
       <c r="AE11" s="65" t="n">
         <v>9</v>
       </c>
-      <c r="AF11" s="23"/>
+      <c r="AF11" s="24"/>
       <c r="AG11" s="120" t="s">
         <v>401</v>
       </c>
       <c r="AH11" s="65" t="n">
         <v>10</v>
       </c>
-      <c r="AI11" s="23"/>
+      <c r="AI11" s="24"/>
       <c r="AJ11" s="201"/>
       <c r="AK11" s="65"/>
-      <c r="AL11" s="23"/>
+      <c r="AL11" s="24"/>
       <c r="AM11" s="120"/>
       <c r="AN11" s="65"/>
     </row>
     <row r="12" s="195" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="181"/>
       <c r="D12" s="181"/>
       <c r="E12" s="196" t="s">
@@ -9461,50 +9461,50 @@
       </c>
       <c r="G12" s="120"/>
       <c r="H12" s="198"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="23"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="24"/>
       <c r="AA12" s="201" t="s">
         <v>404</v>
       </c>
       <c r="AB12" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="AC12" s="23"/>
+      <c r="AC12" s="24"/>
       <c r="AD12" s="201" t="s">
         <v>405</v>
       </c>
       <c r="AE12" s="65" t="n">
         <v>11</v>
       </c>
-      <c r="AF12" s="23"/>
+      <c r="AF12" s="24"/>
       <c r="AG12" s="120"/>
       <c r="AH12" s="65"/>
-      <c r="AI12" s="23"/>
+      <c r="AI12" s="24"/>
       <c r="AJ12" s="201"/>
       <c r="AK12" s="65"/>
-      <c r="AL12" s="23"/>
+      <c r="AL12" s="24"/>
       <c r="AM12" s="120"/>
       <c r="AN12" s="65"/>
     </row>
     <row r="13" s="195" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="181"/>
       <c r="D13" s="181"/>
       <c r="E13" s="196" t="s">
@@ -9515,44 +9515,44 @@
       </c>
       <c r="G13" s="120"/>
       <c r="H13" s="198"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="23"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="24"/>
       <c r="AA13" s="201"/>
       <c r="AB13" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="AC13" s="23"/>
+      <c r="AC13" s="24"/>
       <c r="AD13" s="201"/>
       <c r="AE13" s="65"/>
-      <c r="AF13" s="23"/>
+      <c r="AF13" s="24"/>
       <c r="AG13" s="120"/>
       <c r="AH13" s="65"/>
-      <c r="AI13" s="23"/>
+      <c r="AI13" s="24"/>
       <c r="AJ13" s="201"/>
       <c r="AK13" s="65"/>
-      <c r="AL13" s="23"/>
+      <c r="AL13" s="24"/>
       <c r="AM13" s="120"/>
       <c r="AN13" s="65"/>
     </row>
     <row r="14" s="195" customFormat="true" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="181"/>
       <c r="D14" s="181"/>
       <c r="E14" s="196" t="s">
@@ -9565,44 +9565,44 @@
         <v>410</v>
       </c>
       <c r="H14" s="198"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="23"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="24"/>
       <c r="AA14" s="199"/>
       <c r="AB14" s="42" t="n">
         <v>7</v>
       </c>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
       <c r="AE14" s="192"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
       <c r="AH14" s="192"/>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="23"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
       <c r="AK14" s="192"/>
-      <c r="AL14" s="23"/>
-      <c r="AM14" s="23"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
       <c r="AN14" s="192"/>
     </row>
     <row r="15" s="195" customFormat="true" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="181"/>
       <c r="D15" s="181"/>
       <c r="E15" s="196" t="s">
@@ -9615,43 +9615,43 @@
         <v>413</v>
       </c>
       <c r="H15" s="198"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="23"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="24"/>
       <c r="AA15" s="199"/>
       <c r="AB15" s="42" t="n">
         <v>7</v>
       </c>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
       <c r="AE15" s="192"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24"/>
       <c r="AH15" s="192"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="23"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
       <c r="AK15" s="192"/>
-      <c r="AL15" s="23"/>
-      <c r="AM15" s="23"/>
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="24"/>
       <c r="AN15" s="192"/>
     </row>
     <row r="16" s="195" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="105"/>
       <c r="E16" s="196" t="s">
         <v>414</v>
@@ -9663,44 +9663,44 @@
         <v>416</v>
       </c>
       <c r="H16" s="198"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="23"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="24"/>
       <c r="AA16" s="199"/>
       <c r="AB16" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
       <c r="AE16" s="192"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
       <c r="AH16" s="192"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
       <c r="AK16" s="192"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="24"/>
       <c r="AN16" s="192"/>
     </row>
     <row r="17" s="195" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="181"/>
       <c r="D17" s="181"/>
       <c r="E17" s="196" t="s">
@@ -9713,44 +9713,44 @@
         <v>419</v>
       </c>
       <c r="H17" s="198"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="23"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="24"/>
       <c r="AA17" s="199"/>
       <c r="AB17" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
       <c r="AE17" s="192"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
       <c r="AH17" s="192"/>
-      <c r="AI17" s="23"/>
-      <c r="AJ17" s="23"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
       <c r="AK17" s="192"/>
-      <c r="AL17" s="23"/>
-      <c r="AM17" s="23"/>
+      <c r="AL17" s="24"/>
+      <c r="AM17" s="24"/>
       <c r="AN17" s="192"/>
     </row>
     <row r="18" s="195" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="181"/>
       <c r="D18" s="181"/>
       <c r="E18" s="196" t="s">
@@ -9763,44 +9763,44 @@
         <v>422</v>
       </c>
       <c r="H18" s="198"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="23"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="24"/>
       <c r="AA18" s="199"/>
       <c r="AB18" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
       <c r="AE18" s="192"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
       <c r="AH18" s="192"/>
-      <c r="AI18" s="23"/>
-      <c r="AJ18" s="23"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="24"/>
       <c r="AK18" s="192"/>
-      <c r="AL18" s="23"/>
-      <c r="AM18" s="23"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="24"/>
       <c r="AN18" s="192"/>
     </row>
     <row r="19" s="195" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="181"/>
       <c r="D19" s="181"/>
       <c r="E19" s="196" t="s">
@@ -9813,39 +9813,39 @@
         <v>425</v>
       </c>
       <c r="H19" s="198"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="23"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="24"/>
       <c r="AA19" s="199"/>
       <c r="AB19" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
       <c r="AE19" s="192"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
       <c r="AH19" s="192"/>
-      <c r="AI19" s="23"/>
-      <c r="AJ19" s="23"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
       <c r="AK19" s="192"/>
-      <c r="AL19" s="23"/>
-      <c r="AM19" s="23"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
       <c r="AN19" s="192"/>
     </row>
     <row r="20" s="195" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9863,39 +9863,39 @@
         <v>428</v>
       </c>
       <c r="H20" s="198"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="23"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="24"/>
       <c r="AA20" s="199"/>
       <c r="AB20" s="42" t="n">
         <v>8</v>
       </c>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
       <c r="AE20" s="192"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24"/>
       <c r="AH20" s="192"/>
-      <c r="AI20" s="23"/>
-      <c r="AJ20" s="23"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24"/>
       <c r="AK20" s="192"/>
-      <c r="AL20" s="23"/>
-      <c r="AM20" s="23"/>
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="24"/>
       <c r="AN20" s="192"/>
     </row>
     <row r="21" s="195" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9913,46 +9913,46 @@
         <v>431</v>
       </c>
       <c r="H21" s="198"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="23"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="24"/>
       <c r="AA21" s="199"/>
       <c r="AB21" s="42" t="n">
         <v>8</v>
       </c>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
       <c r="AE21" s="192"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
       <c r="AH21" s="192"/>
-      <c r="AI21" s="23"/>
-      <c r="AJ21" s="23"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="24"/>
       <c r="AK21" s="192"/>
-      <c r="AL21" s="23"/>
-      <c r="AM21" s="23"/>
+      <c r="AL21" s="24"/>
+      <c r="AM21" s="24"/>
       <c r="AN21" s="192"/>
     </row>
     <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="196" t="s">
         <v>432</v>
       </c>
@@ -9963,23 +9963,23 @@
         <v>434</v>
       </c>
       <c r="H22" s="198"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
       <c r="Z22" s="181"/>
       <c r="AA22" s="181"/>
       <c r="AB22" s="42" t="n">
@@ -10001,8 +10001,8 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="123"/>
       <c r="B23" s="123"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="196" t="s">
         <v>435</v>
       </c>
@@ -10013,23 +10013,23 @@
         <v>437</v>
       </c>
       <c r="H23" s="198"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
       <c r="Z23" s="181"/>
       <c r="AA23" s="181"/>
       <c r="AB23" s="42" t="n">
@@ -10059,34 +10059,34 @@
       </c>
       <c r="E24" s="85"/>
       <c r="F24" s="85"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="198"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
       <c r="AA24" s="39"/>
       <c r="AB24" s="84"/>
-      <c r="AC24" s="12"/>
+      <c r="AC24" s="13"/>
       <c r="AD24" s="204"/>
       <c r="AE24" s="205"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="12"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
       <c r="AI24" s="181"/>
       <c r="AJ24" s="181"/>
       <c r="AK24" s="181"/>
@@ -10097,45 +10097,45 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="123"/>
       <c r="B25" s="123"/>
-      <c r="C25" s="12"/>
+      <c r="C25" s="13"/>
       <c r="E25" s="85" t="s">
         <v>440</v>
       </c>
       <c r="F25" s="85" t="s">
         <v>441</v>
       </c>
-      <c r="G25" s="12"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="198"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
       <c r="AA25" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB25" s="84" t="n">
         <v>3.5</v>
       </c>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
       <c r="AE25" s="205"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="12"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
       <c r="AI25" s="181"/>
       <c r="AJ25" s="181"/>
       <c r="AK25" s="181"/>
@@ -10146,8 +10146,8 @@
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="123"/>
       <c r="B26" s="123"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="196" t="s">
         <v>443</v>
       </c>
@@ -10156,23 +10156,23 @@
       </c>
       <c r="G26" s="203"/>
       <c r="H26" s="198"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
       <c r="Z26" s="181"/>
       <c r="AA26" s="39" t="s">
         <v>442</v>
@@ -10202,48 +10202,48 @@
       <c r="D27" s="206" t="s">
         <v>446</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="198"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="23"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="24"/>
       <c r="AA27" s="191"/>
       <c r="AB27" s="192"/>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="23"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
       <c r="AE27" s="192"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="23"/>
-      <c r="AJ27" s="23"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="24"/>
+      <c r="AJ27" s="24"/>
       <c r="AK27" s="192"/>
-      <c r="AL27" s="12"/>
-      <c r="AM27" s="12"/>
-      <c r="AN27" s="12"/>
+      <c r="AL27" s="13"/>
+      <c r="AM27" s="13"/>
+      <c r="AN27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="31" t="s">
         <v>447</v>
       </c>
@@ -10285,21 +10285,21 @@
       <c r="AE28" s="210" t="n">
         <v>2</v>
       </c>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
       <c r="AI28" s="211"/>
       <c r="AJ28" s="211"/>
       <c r="AK28" s="210"/>
-      <c r="AL28" s="12"/>
-      <c r="AM28" s="12"/>
-      <c r="AN28" s="12"/>
+      <c r="AL28" s="13"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="31" t="s">
         <v>451</v>
       </c>
@@ -10333,21 +10333,21 @@
       <c r="AC29" s="211"/>
       <c r="AD29" s="211"/>
       <c r="AE29" s="210"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
       <c r="AI29" s="211"/>
       <c r="AJ29" s="211"/>
       <c r="AK29" s="210"/>
-      <c r="AL29" s="12"/>
-      <c r="AM29" s="12"/>
-      <c r="AN29" s="12"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="31" t="s">
         <v>453</v>
       </c>
@@ -10391,19 +10391,19 @@
       <c r="AE30" s="210" t="n">
         <v>4</v>
       </c>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
       <c r="AI30" s="211"/>
       <c r="AJ30" s="211"/>
       <c r="AK30" s="210"/>
-      <c r="AL30" s="12"/>
-      <c r="AM30" s="12"/>
-      <c r="AN30" s="12"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="85" t="s">
@@ -10445,19 +10445,19 @@
       <c r="AC31" s="211"/>
       <c r="AD31" s="211"/>
       <c r="AE31" s="210"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="12"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
       <c r="AI31" s="211"/>
       <c r="AJ31" s="211"/>
       <c r="AK31" s="210"/>
-      <c r="AL31" s="12"/>
-      <c r="AM31" s="12"/>
-      <c r="AN31" s="12"/>
+      <c r="AL31" s="13"/>
+      <c r="AM31" s="13"/>
+      <c r="AN31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="85" t="s">
@@ -10499,19 +10499,19 @@
       <c r="AC32" s="211"/>
       <c r="AD32" s="211"/>
       <c r="AE32" s="210"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="12"/>
-      <c r="AH32" s="12"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
       <c r="AI32" s="211"/>
       <c r="AJ32" s="211"/>
       <c r="AK32" s="210"/>
-      <c r="AL32" s="12"/>
-      <c r="AM32" s="12"/>
-      <c r="AN32" s="12"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32" s="13"/>
+      <c r="AN32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="85" t="s">
@@ -10549,19 +10549,19 @@
       <c r="AC33" s="211"/>
       <c r="AD33" s="211"/>
       <c r="AE33" s="210"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="12"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
       <c r="AI33" s="211"/>
       <c r="AJ33" s="211"/>
       <c r="AK33" s="210"/>
-      <c r="AL33" s="12"/>
-      <c r="AM33" s="12"/>
-      <c r="AN33" s="12"/>
+      <c r="AL33" s="13"/>
+      <c r="AM33" s="13"/>
+      <c r="AN33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="85" t="s">
@@ -10597,19 +10597,19 @@
       <c r="AC34" s="211"/>
       <c r="AD34" s="211"/>
       <c r="AE34" s="210"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="12"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
       <c r="AI34" s="211"/>
       <c r="AJ34" s="211"/>
       <c r="AK34" s="210"/>
-      <c r="AL34" s="12"/>
-      <c r="AM34" s="12"/>
-      <c r="AN34" s="12"/>
+      <c r="AL34" s="13"/>
+      <c r="AM34" s="13"/>
+      <c r="AN34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="60" t="s">
@@ -10647,19 +10647,19 @@
       <c r="AC35" s="211"/>
       <c r="AD35" s="211"/>
       <c r="AE35" s="210"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="12"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
       <c r="AI35" s="211"/>
       <c r="AJ35" s="211"/>
       <c r="AK35" s="210"/>
-      <c r="AL35" s="12"/>
-      <c r="AM35" s="12"/>
-      <c r="AN35" s="12"/>
+      <c r="AL35" s="13"/>
+      <c r="AM35" s="13"/>
+      <c r="AN35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="31" t="s">
@@ -10697,19 +10697,19 @@
       <c r="AC36" s="211"/>
       <c r="AD36" s="211"/>
       <c r="AE36" s="210"/>
-      <c r="AF36" s="12"/>
-      <c r="AG36" s="12"/>
-      <c r="AH36" s="12"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
       <c r="AI36" s="211"/>
       <c r="AJ36" s="211"/>
       <c r="AK36" s="210"/>
-      <c r="AL36" s="12"/>
-      <c r="AM36" s="12"/>
-      <c r="AN36" s="12"/>
+      <c r="AL36" s="13"/>
+      <c r="AM36" s="13"/>
+      <c r="AN36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="212"/>
       <c r="D37" s="212"/>
       <c r="E37" s="213" t="s">
@@ -10749,19 +10749,19 @@
       <c r="AC37" s="211"/>
       <c r="AD37" s="211"/>
       <c r="AE37" s="210"/>
-      <c r="AF37" s="12"/>
-      <c r="AG37" s="12"/>
-      <c r="AH37" s="12"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="13"/>
       <c r="AI37" s="211"/>
       <c r="AJ37" s="211"/>
       <c r="AK37" s="210"/>
-      <c r="AL37" s="12"/>
-      <c r="AM37" s="12"/>
-      <c r="AN37" s="12"/>
+      <c r="AL37" s="13"/>
+      <c r="AM37" s="13"/>
+      <c r="AN37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="212"/>
       <c r="D38" s="212"/>
       <c r="E38" s="213" t="s">
@@ -10801,19 +10801,19 @@
       <c r="AC38" s="211"/>
       <c r="AD38" s="211"/>
       <c r="AE38" s="210"/>
-      <c r="AF38" s="12"/>
-      <c r="AG38" s="12"/>
-      <c r="AH38" s="12"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
       <c r="AI38" s="211"/>
       <c r="AJ38" s="211"/>
       <c r="AK38" s="210"/>
-      <c r="AL38" s="12"/>
-      <c r="AM38" s="12"/>
-      <c r="AN38" s="12"/>
+      <c r="AL38" s="13"/>
+      <c r="AM38" s="13"/>
+      <c r="AN38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
       <c r="E39" s="31" t="s">
@@ -10851,19 +10851,19 @@
       <c r="AC39" s="211"/>
       <c r="AD39" s="211"/>
       <c r="AE39" s="210"/>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="12"/>
-      <c r="AH39" s="12"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
       <c r="AI39" s="211"/>
       <c r="AJ39" s="211"/>
       <c r="AK39" s="210"/>
-      <c r="AL39" s="12"/>
-      <c r="AM39" s="12"/>
-      <c r="AN39" s="12"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="13"/>
+      <c r="AN39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="31" t="s">
@@ -10901,19 +10901,19 @@
       <c r="AC40" s="211"/>
       <c r="AD40" s="211"/>
       <c r="AE40" s="210"/>
-      <c r="AF40" s="12"/>
-      <c r="AG40" s="12"/>
-      <c r="AH40" s="12"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
       <c r="AI40" s="211"/>
       <c r="AJ40" s="211"/>
       <c r="AK40" s="210"/>
-      <c r="AL40" s="12"/>
-      <c r="AM40" s="12"/>
-      <c r="AN40" s="12"/>
+      <c r="AL40" s="13"/>
+      <c r="AM40" s="13"/>
+      <c r="AN40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="31" t="s">
@@ -10951,19 +10951,19 @@
       <c r="AC41" s="211"/>
       <c r="AD41" s="211"/>
       <c r="AE41" s="210"/>
-      <c r="AF41" s="12"/>
-      <c r="AG41" s="12"/>
-      <c r="AH41" s="12"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="13"/>
       <c r="AI41" s="211"/>
       <c r="AJ41" s="211"/>
       <c r="AK41" s="210"/>
-      <c r="AL41" s="12"/>
-      <c r="AM41" s="12"/>
-      <c r="AN41" s="12"/>
+      <c r="AL41" s="13"/>
+      <c r="AM41" s="13"/>
+      <c r="AN41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="31" t="s">
@@ -11001,19 +11001,19 @@
       <c r="AC42" s="211"/>
       <c r="AD42" s="211"/>
       <c r="AE42" s="210"/>
-      <c r="AF42" s="12"/>
-      <c r="AG42" s="12"/>
-      <c r="AH42" s="12"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
       <c r="AI42" s="211"/>
       <c r="AJ42" s="211"/>
       <c r="AK42" s="210"/>
-      <c r="AL42" s="12"/>
-      <c r="AM42" s="12"/>
-      <c r="AN42" s="12"/>
+      <c r="AL42" s="13"/>
+      <c r="AM42" s="13"/>
+      <c r="AN42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="31" t="s">
@@ -11051,67 +11051,67 @@
       <c r="AC43" s="211"/>
       <c r="AD43" s="211"/>
       <c r="AE43" s="210"/>
-      <c r="AF43" s="12"/>
-      <c r="AG43" s="12"/>
-      <c r="AH43" s="12"/>
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="13"/>
       <c r="AI43" s="211"/>
       <c r="AJ43" s="211"/>
       <c r="AK43" s="210"/>
-      <c r="AL43" s="12"/>
-      <c r="AM43" s="12"/>
-      <c r="AN43" s="12"/>
+      <c r="AL43" s="13"/>
+      <c r="AM43" s="13"/>
+      <c r="AN43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="214" t="s">
         <v>486</v>
       </c>
       <c r="D44" s="215" t="s">
         <v>487</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="G44" s="12"/>
+      <c r="E44" s="13"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="198"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
       <c r="AB44" s="216"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12"/>
-      <c r="AF44" s="12"/>
-      <c r="AG44" s="12"/>
-      <c r="AH44" s="12"/>
-      <c r="AI44" s="12"/>
-      <c r="AJ44" s="12"/>
-      <c r="AK44" s="12"/>
-      <c r="AL44" s="12"/>
-      <c r="AM44" s="12"/>
-      <c r="AN44" s="12"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="13"/>
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="13"/>
+      <c r="AJ44" s="13"/>
+      <c r="AK44" s="13"/>
+      <c r="AL44" s="13"/>
+      <c r="AM44" s="13"/>
+      <c r="AN44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="12"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="123"/>
       <c r="E45" s="217" t="s">
         <v>488</v>
@@ -11143,23 +11143,23 @@
       <c r="AB45" s="62" t="n">
         <v>1</v>
       </c>
-      <c r="AC45" s="12"/>
-      <c r="AD45" s="12"/>
-      <c r="AE45" s="12"/>
-      <c r="AF45" s="12"/>
-      <c r="AG45" s="12"/>
-      <c r="AH45" s="12"/>
-      <c r="AI45" s="12"/>
-      <c r="AJ45" s="12"/>
-      <c r="AK45" s="12"/>
-      <c r="AL45" s="12"/>
-      <c r="AM45" s="12"/>
-      <c r="AN45" s="12"/>
+      <c r="AC45" s="13"/>
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="13"/>
+      <c r="AF45" s="13"/>
+      <c r="AG45" s="13"/>
+      <c r="AH45" s="13"/>
+      <c r="AI45" s="13"/>
+      <c r="AJ45" s="13"/>
+      <c r="AK45" s="13"/>
+      <c r="AL45" s="13"/>
+      <c r="AM45" s="13"/>
+      <c r="AN45" s="13"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="12"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="123"/>
       <c r="E46" s="217" t="s">
         <v>490</v>
@@ -11191,23 +11191,23 @@
       <c r="AB46" s="219" t="n">
         <v>1.1</v>
       </c>
-      <c r="AC46" s="12"/>
-      <c r="AD46" s="12"/>
-      <c r="AE46" s="12"/>
-      <c r="AF46" s="12"/>
-      <c r="AG46" s="12"/>
-      <c r="AH46" s="12"/>
-      <c r="AI46" s="12"/>
-      <c r="AJ46" s="12"/>
-      <c r="AK46" s="12"/>
-      <c r="AL46" s="12"/>
-      <c r="AM46" s="12"/>
-      <c r="AN46" s="12"/>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="13"/>
+      <c r="AI46" s="13"/>
+      <c r="AJ46" s="13"/>
+      <c r="AK46" s="13"/>
+      <c r="AL46" s="13"/>
+      <c r="AM46" s="13"/>
+      <c r="AN46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="12"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="13"/>
       <c r="D47" s="123"/>
       <c r="E47" s="217" t="s">
         <v>492</v>
@@ -11239,23 +11239,23 @@
       <c r="AB47" s="62" t="n">
         <v>1.5</v>
       </c>
-      <c r="AC47" s="12"/>
-      <c r="AD47" s="12"/>
-      <c r="AE47" s="12"/>
-      <c r="AF47" s="12"/>
-      <c r="AG47" s="12"/>
-      <c r="AH47" s="12"/>
-      <c r="AI47" s="12"/>
-      <c r="AJ47" s="12"/>
-      <c r="AK47" s="12"/>
-      <c r="AL47" s="12"/>
-      <c r="AM47" s="12"/>
-      <c r="AN47" s="12"/>
+      <c r="AC47" s="13"/>
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="13"/>
+      <c r="AF47" s="13"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="13"/>
+      <c r="AI47" s="13"/>
+      <c r="AJ47" s="13"/>
+      <c r="AK47" s="13"/>
+      <c r="AL47" s="13"/>
+      <c r="AM47" s="13"/>
+      <c r="AN47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
       <c r="D48" s="123"/>
       <c r="E48" s="217" t="s">
         <v>494</v>
@@ -11287,23 +11287,23 @@
       <c r="AB48" s="219" t="n">
         <v>1.5</v>
       </c>
-      <c r="AC48" s="12"/>
-      <c r="AD48" s="12"/>
-      <c r="AE48" s="12"/>
-      <c r="AF48" s="12"/>
-      <c r="AG48" s="12"/>
-      <c r="AH48" s="12"/>
-      <c r="AI48" s="12"/>
-      <c r="AJ48" s="12"/>
-      <c r="AK48" s="12"/>
-      <c r="AL48" s="12"/>
-      <c r="AM48" s="12"/>
-      <c r="AN48" s="12"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="13"/>
+      <c r="AF48" s="13"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="13"/>
+      <c r="AI48" s="13"/>
+      <c r="AJ48" s="13"/>
+      <c r="AK48" s="13"/>
+      <c r="AL48" s="13"/>
+      <c r="AM48" s="13"/>
+      <c r="AN48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="123"/>
       <c r="E49" s="217" t="s">
         <v>496</v>
@@ -11335,23 +11335,23 @@
       <c r="AB49" s="62" t="n">
         <v>1</v>
       </c>
-      <c r="AC49" s="12"/>
-      <c r="AD49" s="12"/>
-      <c r="AE49" s="12"/>
-      <c r="AF49" s="12"/>
-      <c r="AG49" s="12"/>
-      <c r="AH49" s="12"/>
-      <c r="AI49" s="12"/>
-      <c r="AJ49" s="12"/>
-      <c r="AK49" s="12"/>
-      <c r="AL49" s="12"/>
-      <c r="AM49" s="12"/>
-      <c r="AN49" s="12"/>
+      <c r="AC49" s="13"/>
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="13"/>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="13"/>
+      <c r="AI49" s="13"/>
+      <c r="AJ49" s="13"/>
+      <c r="AK49" s="13"/>
+      <c r="AL49" s="13"/>
+      <c r="AM49" s="13"/>
+      <c r="AN49" s="13"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="123"/>
       <c r="E50" s="217" t="s">
         <v>498</v>
@@ -11383,23 +11383,23 @@
       <c r="AB50" s="219" t="n">
         <v>1.2</v>
       </c>
-      <c r="AC50" s="12"/>
-      <c r="AD50" s="12"/>
-      <c r="AE50" s="12"/>
-      <c r="AF50" s="12"/>
-      <c r="AG50" s="12"/>
-      <c r="AH50" s="12"/>
-      <c r="AI50" s="12"/>
-      <c r="AJ50" s="12"/>
-      <c r="AK50" s="12"/>
-      <c r="AL50" s="12"/>
-      <c r="AM50" s="12"/>
-      <c r="AN50" s="12"/>
+      <c r="AC50" s="13"/>
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="13"/>
+      <c r="AF50" s="13"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="13"/>
+      <c r="AI50" s="13"/>
+      <c r="AJ50" s="13"/>
+      <c r="AK50" s="13"/>
+      <c r="AL50" s="13"/>
+      <c r="AM50" s="13"/>
+      <c r="AN50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="123"/>
       <c r="E51" s="217" t="s">
         <v>500</v>
@@ -11431,23 +11431,23 @@
       <c r="AB51" s="62" t="n">
         <v>3.5</v>
       </c>
-      <c r="AC51" s="12"/>
-      <c r="AD51" s="12"/>
-      <c r="AE51" s="12"/>
-      <c r="AF51" s="12"/>
-      <c r="AG51" s="12"/>
-      <c r="AH51" s="12"/>
-      <c r="AI51" s="12"/>
-      <c r="AJ51" s="12"/>
-      <c r="AK51" s="12"/>
-      <c r="AL51" s="12"/>
-      <c r="AM51" s="12"/>
-      <c r="AN51" s="12"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="13"/>
+      <c r="AF51" s="13"/>
+      <c r="AG51" s="13"/>
+      <c r="AH51" s="13"/>
+      <c r="AI51" s="13"/>
+      <c r="AJ51" s="13"/>
+      <c r="AK51" s="13"/>
+      <c r="AL51" s="13"/>
+      <c r="AM51" s="13"/>
+      <c r="AN51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="123"/>
       <c r="E52" s="217" t="s">
         <v>502</v>
@@ -11479,23 +11479,23 @@
       <c r="AB52" s="62" t="n">
         <v>4</v>
       </c>
-      <c r="AC52" s="12"/>
-      <c r="AD52" s="12"/>
-      <c r="AE52" s="12"/>
-      <c r="AF52" s="12"/>
-      <c r="AG52" s="12"/>
-      <c r="AH52" s="12"/>
-      <c r="AI52" s="12"/>
-      <c r="AJ52" s="12"/>
-      <c r="AK52" s="12"/>
-      <c r="AL52" s="12"/>
-      <c r="AM52" s="12"/>
-      <c r="AN52" s="12"/>
+      <c r="AC52" s="13"/>
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="13"/>
+      <c r="AF52" s="13"/>
+      <c r="AG52" s="13"/>
+      <c r="AH52" s="13"/>
+      <c r="AI52" s="13"/>
+      <c r="AJ52" s="13"/>
+      <c r="AK52" s="13"/>
+      <c r="AL52" s="13"/>
+      <c r="AM52" s="13"/>
+      <c r="AN52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="123"/>
       <c r="E53" s="217" t="s">
         <v>504</v>
@@ -11527,23 +11527,23 @@
       <c r="AB53" s="219" t="n">
         <v>4</v>
       </c>
-      <c r="AC53" s="12"/>
-      <c r="AD53" s="12"/>
-      <c r="AE53" s="12"/>
-      <c r="AF53" s="12"/>
-      <c r="AG53" s="12"/>
-      <c r="AH53" s="12"/>
-      <c r="AI53" s="12"/>
-      <c r="AJ53" s="12"/>
-      <c r="AK53" s="12"/>
-      <c r="AL53" s="12"/>
-      <c r="AM53" s="12"/>
-      <c r="AN53" s="12"/>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="13"/>
+      <c r="AE53" s="13"/>
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="13"/>
+      <c r="AH53" s="13"/>
+      <c r="AI53" s="13"/>
+      <c r="AJ53" s="13"/>
+      <c r="AK53" s="13"/>
+      <c r="AL53" s="13"/>
+      <c r="AM53" s="13"/>
+      <c r="AN53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="123"/>
       <c r="E54" s="217" t="s">
         <v>506</v>
@@ -11575,23 +11575,23 @@
       <c r="AB54" s="62" t="n">
         <v>4</v>
       </c>
-      <c r="AC54" s="12"/>
-      <c r="AD54" s="12"/>
-      <c r="AE54" s="12"/>
-      <c r="AF54" s="12"/>
-      <c r="AG54" s="12"/>
-      <c r="AH54" s="12"/>
-      <c r="AI54" s="12"/>
-      <c r="AJ54" s="12"/>
-      <c r="AK54" s="12"/>
-      <c r="AL54" s="12"/>
-      <c r="AM54" s="12"/>
-      <c r="AN54" s="12"/>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="13"/>
+      <c r="AF54" s="13"/>
+      <c r="AG54" s="13"/>
+      <c r="AH54" s="13"/>
+      <c r="AI54" s="13"/>
+      <c r="AJ54" s="13"/>
+      <c r="AK54" s="13"/>
+      <c r="AL54" s="13"/>
+      <c r="AM54" s="13"/>
+      <c r="AN54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="222"/>
       <c r="B55" s="222"/>
-      <c r="C55" s="12"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="123"/>
       <c r="E55" s="217" t="s">
         <v>508</v>
@@ -11627,25 +11627,25 @@
       <c r="AB55" s="219" t="n">
         <v>6</v>
       </c>
-      <c r="AC55" s="12"/>
-      <c r="AD55" s="12"/>
-      <c r="AE55" s="12"/>
-      <c r="AF55" s="12"/>
-      <c r="AG55" s="12"/>
-      <c r="AH55" s="12"/>
-      <c r="AI55" s="12"/>
-      <c r="AJ55" s="12"/>
-      <c r="AK55" s="12"/>
-      <c r="AL55" s="12"/>
-      <c r="AM55" s="12"/>
-      <c r="AN55" s="12"/>
+      <c r="AC55" s="13"/>
+      <c r="AD55" s="13"/>
+      <c r="AE55" s="13"/>
+      <c r="AF55" s="13"/>
+      <c r="AG55" s="13"/>
+      <c r="AH55" s="13"/>
+      <c r="AI55" s="13"/>
+      <c r="AJ55" s="13"/>
+      <c r="AK55" s="13"/>
+      <c r="AL55" s="13"/>
+      <c r="AM55" s="13"/>
+      <c r="AN55" s="13"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -11654,7 +11654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="false"/>
@@ -11662,32 +11662,32 @@
   <dimension ref="A1:AH56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH52" activeCellId="0" sqref="AH52"/>
+      <selection pane="topLeft" activeCell="AH52" activeCellId="1" sqref="21:22 AH52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="41.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="41.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="8.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="5.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="226" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="226" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="11.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11730,7 +11730,7 @@
       <c r="A2" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="230" t="s">
@@ -11780,40 +11780,40 @@
       <c r="C3" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="85" t="s">
         <v>513</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="20" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="21" t="s">
         <v>10</v>
       </c>
       <c r="Z3" s="46" t="s">
@@ -11828,7 +11828,7 @@
       <c r="AC3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AD3" s="23" t="s">
+      <c r="AD3" s="24" t="s">
         <v>15</v>
       </c>
       <c r="AE3" s="235" t="s">
@@ -11845,10 +11845,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="193" t="s">
         <v>514</v>
       </c>
@@ -11858,60 +11858,60 @@
       <c r="H4" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="U4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="25" t="s">
+      <c r="V4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="26" t="s">
+      <c r="W4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="25" t="s">
+      <c r="X4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="25"/>
+      <c r="Y4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="105"/>
-      <c r="C5" s="12"/>
+      <c r="C5" s="13"/>
       <c r="E5" s="236" t="s">
         <v>516</v>
       </c>
@@ -11953,13 +11953,13 @@
       <c r="AE5" s="239" t="n">
         <v>15</v>
       </c>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="240" t="s">
@@ -11989,27 +11989,27 @@
       <c r="W6" s="33"/>
       <c r="X6" s="33"/>
       <c r="Y6" s="33"/>
-      <c r="Z6" s="23"/>
+      <c r="Z6" s="24"/>
       <c r="AA6" s="87" t="s">
         <v>518</v>
       </c>
       <c r="AB6" s="81" t="n">
         <v>4</v>
       </c>
-      <c r="AC6" s="23"/>
+      <c r="AC6" s="24"/>
       <c r="AD6" s="87" t="s">
         <v>519</v>
       </c>
       <c r="AE6" s="239" t="n">
         <v>12</v>
       </c>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
       <c r="E7" s="60" t="s">
@@ -12039,27 +12039,27 @@
       <c r="W7" s="33"/>
       <c r="X7" s="33"/>
       <c r="Y7" s="33"/>
-      <c r="Z7" s="23"/>
+      <c r="Z7" s="24"/>
       <c r="AA7" s="87" t="s">
         <v>518</v>
       </c>
       <c r="AB7" s="81" t="n">
         <v>4</v>
       </c>
-      <c r="AC7" s="23"/>
+      <c r="AC7" s="24"/>
       <c r="AD7" s="87" t="s">
         <v>519</v>
       </c>
       <c r="AE7" s="239" t="n">
         <v>12</v>
       </c>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="240" t="s">
@@ -12089,27 +12089,27 @@
       <c r="W8" s="33"/>
       <c r="X8" s="33"/>
       <c r="Y8" s="33"/>
-      <c r="Z8" s="23"/>
+      <c r="Z8" s="24"/>
       <c r="AA8" s="87" t="s">
         <v>518</v>
       </c>
       <c r="AB8" s="81" t="n">
         <v>4</v>
       </c>
-      <c r="AC8" s="23"/>
+      <c r="AC8" s="24"/>
       <c r="AD8" s="87" t="s">
         <v>519</v>
       </c>
       <c r="AE8" s="239" t="n">
         <v>12</v>
       </c>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="240" t="s">
@@ -12139,27 +12139,27 @@
       <c r="W9" s="33"/>
       <c r="X9" s="33"/>
       <c r="Y9" s="33"/>
-      <c r="Z9" s="23"/>
+      <c r="Z9" s="24"/>
       <c r="AA9" s="87" t="s">
         <v>518</v>
       </c>
       <c r="AB9" s="81" t="n">
         <v>4.5</v>
       </c>
-      <c r="AC9" s="23"/>
+      <c r="AC9" s="24"/>
       <c r="AD9" s="87" t="s">
         <v>519</v>
       </c>
       <c r="AE9" s="239" t="n">
         <v>14</v>
       </c>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="193" t="s">
         <v>528</v>
       </c>
@@ -12185,13 +12185,13 @@
       <c r="X10" s="33"/>
       <c r="Y10" s="33"/>
       <c r="AB10" s="241"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="193"/>
       <c r="D11" s="193"/>
       <c r="E11" s="60" t="s">
@@ -12219,23 +12219,23 @@
       <c r="W11" s="33"/>
       <c r="X11" s="33"/>
       <c r="Y11" s="33"/>
-      <c r="Z11" s="23"/>
+      <c r="Z11" s="24"/>
       <c r="AA11" s="87" t="s">
         <v>518</v>
       </c>
       <c r="AB11" s="81" t="n">
         <v>4</v>
       </c>
-      <c r="AC11" s="23"/>
+      <c r="AC11" s="24"/>
       <c r="AD11" s="87"/>
       <c r="AE11" s="242"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" s="240" t="s">
@@ -12265,23 +12265,23 @@
       <c r="W12" s="33"/>
       <c r="X12" s="33"/>
       <c r="Y12" s="33"/>
-      <c r="Z12" s="23"/>
+      <c r="Z12" s="24"/>
       <c r="AA12" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AB12" s="81" t="n">
         <v>5</v>
       </c>
-      <c r="AC12" s="23"/>
+      <c r="AC12" s="24"/>
       <c r="AD12" s="87"/>
       <c r="AE12" s="242"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
       <c r="E13" s="60" t="s">
@@ -12311,23 +12311,23 @@
       <c r="W13" s="33"/>
       <c r="X13" s="33"/>
       <c r="Y13" s="33"/>
-      <c r="Z13" s="23"/>
+      <c r="Z13" s="24"/>
       <c r="AA13" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AB13" s="81" t="n">
         <v>5</v>
       </c>
-      <c r="AC13" s="23"/>
+      <c r="AC13" s="24"/>
       <c r="AD13" s="87"/>
       <c r="AE13" s="242"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="193" t="s">
         <v>538</v>
       </c>
@@ -12338,35 +12338,35 @@
       <c r="F14" s="60"/>
       <c r="G14" s="51"/>
       <c r="H14" s="198"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="23"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="24"/>
       <c r="AA14" s="204"/>
       <c r="AB14" s="243"/>
-      <c r="AC14" s="23"/>
+      <c r="AC14" s="24"/>
       <c r="AD14" s="87"/>
       <c r="AE14" s="242"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="244"/>
       <c r="E15" s="240" t="s">
         <v>540</v>
@@ -12409,15 +12409,15 @@
       <c r="AE15" s="246" t="n">
         <v>5</v>
       </c>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="240" t="s">
         <v>543</v>
       </c>
@@ -12459,15 +12459,15 @@
       <c r="AE16" s="246" t="n">
         <v>6</v>
       </c>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="60" t="s">
         <v>546</v>
       </c>
@@ -12509,15 +12509,15 @@
       <c r="AE17" s="246" t="n">
         <v>7</v>
       </c>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="247" t="s">
         <v>549</v>
       </c>
@@ -12559,15 +12559,15 @@
       <c r="AE18" s="249" t="n">
         <v>8</v>
       </c>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="60" t="s">
         <v>552</v>
       </c>
@@ -12609,15 +12609,15 @@
       <c r="AE19" s="249" t="n">
         <v>5</v>
       </c>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="247" t="s">
         <v>555</v>
       </c>
@@ -12659,15 +12659,15 @@
       <c r="AE20" s="246" t="n">
         <v>7</v>
       </c>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="60" t="s">
         <v>557</v>
       </c>
@@ -12709,15 +12709,15 @@
       <c r="AE21" s="246" t="n">
         <v>7</v>
       </c>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="72"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="60" t="s">
         <v>559</v>
       </c>
@@ -12759,9 +12759,9 @@
       <c r="AE22" s="239" t="n">
         <v>8</v>
       </c>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="73"/>
@@ -12809,13 +12809,13 @@
       <c r="AE23" s="239" t="n">
         <v>8.5</v>
       </c>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="90"/>
       <c r="D24" s="90"/>
       <c r="E24" s="85" t="s">
@@ -12828,23 +12828,23 @@
         <v>565</v>
       </c>
       <c r="H24" s="198"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
       <c r="Z24" s="38"/>
       <c r="AA24" s="39"/>
       <c r="AB24" s="251"/>
@@ -12855,15 +12855,15 @@
       <c r="AE24" s="249" t="n">
         <v>4.5</v>
       </c>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="12"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="85" t="s">
         <v>566</v>
       </c>
@@ -12874,42 +12874,42 @@
         <v>568</v>
       </c>
       <c r="H25" s="198"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
       <c r="AA25" s="39"/>
       <c r="AB25" s="84"/>
-      <c r="AC25" s="12"/>
+      <c r="AC25" s="13"/>
       <c r="AD25" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE25" s="249" t="n">
         <v>4.5</v>
       </c>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="12"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="85" t="s">
         <v>569</v>
       </c>
@@ -12920,46 +12920,46 @@
         <v>571</v>
       </c>
       <c r="H26" s="198"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
       <c r="AA26" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB26" s="84" t="n">
         <v>2.5</v>
       </c>
-      <c r="AC26" s="12"/>
+      <c r="AC26" s="13"/>
       <c r="AD26" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE26" s="205" t="n">
         <v>4.5</v>
       </c>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="85" t="s">
         <v>572</v>
       </c>
@@ -12970,46 +12970,46 @@
         <v>571</v>
       </c>
       <c r="H27" s="198"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
       <c r="AA27" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB27" s="84" t="n">
         <v>4.5</v>
       </c>
-      <c r="AC27" s="12"/>
+      <c r="AC27" s="13"/>
       <c r="AD27" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE27" s="205" t="n">
         <v>7.5</v>
       </c>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="85" t="s">
         <v>574</v>
       </c>
@@ -13020,46 +13020,46 @@
         <v>576</v>
       </c>
       <c r="H28" s="198"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
       <c r="AA28" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB28" s="84" t="n">
         <v>4.5</v>
       </c>
-      <c r="AC28" s="12"/>
+      <c r="AC28" s="13"/>
       <c r="AD28" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE28" s="205" t="n">
         <v>7.5</v>
       </c>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="85" t="s">
         <v>577</v>
       </c>
@@ -13070,46 +13070,46 @@
         <v>579</v>
       </c>
       <c r="H29" s="198"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
       <c r="AA29" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB29" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="AC29" s="12"/>
+      <c r="AC29" s="13"/>
       <c r="AD29" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE29" s="205" t="n">
         <v>5</v>
       </c>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="85" t="s">
         <v>580</v>
       </c>
@@ -13120,46 +13120,46 @@
         <v>579</v>
       </c>
       <c r="H30" s="198"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
       <c r="AA30" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB30" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="AC30" s="12"/>
+      <c r="AC30" s="13"/>
       <c r="AD30" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE30" s="205" t="n">
         <v>5</v>
       </c>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="85" t="s">
         <v>582</v>
       </c>
@@ -13170,46 +13170,46 @@
         <v>584</v>
       </c>
       <c r="H31" s="198"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
       <c r="AA31" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB31" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="AC31" s="12"/>
+      <c r="AC31" s="13"/>
       <c r="AD31" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE31" s="205" t="n">
         <v>5</v>
       </c>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="12"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="85" t="s">
         <v>585</v>
       </c>
@@ -13220,46 +13220,46 @@
         <v>584</v>
       </c>
       <c r="H32" s="198"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
       <c r="AA32" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB32" s="84" t="n">
         <v>4</v>
       </c>
-      <c r="AC32" s="12"/>
+      <c r="AC32" s="13"/>
       <c r="AD32" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE32" s="205" t="n">
         <v>7</v>
       </c>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="12"/>
-      <c r="AH32" s="12"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="85" t="s">
         <v>587</v>
       </c>
@@ -13270,46 +13270,46 @@
         <v>584</v>
       </c>
       <c r="H33" s="198"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
       <c r="AA33" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB33" s="84" t="n">
         <v>4.5</v>
       </c>
-      <c r="AC33" s="12"/>
+      <c r="AC33" s="13"/>
       <c r="AD33" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE33" s="205" t="n">
         <v>8</v>
       </c>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="12"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="85" t="s">
         <v>589</v>
       </c>
@@ -13320,46 +13320,46 @@
         <v>591</v>
       </c>
       <c r="H34" s="198"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
       <c r="AA34" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB34" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="AC34" s="12"/>
+      <c r="AC34" s="13"/>
       <c r="AD34" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE34" s="205" t="n">
         <v>5</v>
       </c>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="12"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="85" t="s">
         <v>592</v>
       </c>
@@ -13370,46 +13370,46 @@
         <v>591</v>
       </c>
       <c r="H35" s="198"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
       <c r="AA35" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB35" s="84" t="n">
         <v>6</v>
       </c>
-      <c r="AC35" s="12"/>
+      <c r="AC35" s="13"/>
       <c r="AD35" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE35" s="205" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="12"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="247" t="s">
         <v>594</v>
       </c>
@@ -13420,46 +13420,46 @@
         <v>591</v>
       </c>
       <c r="H36" s="198"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
       <c r="AA36" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB36" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="AC36" s="12"/>
+      <c r="AC36" s="13"/>
       <c r="AD36" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE36" s="205" t="n">
         <v>5</v>
       </c>
-      <c r="AF36" s="12"/>
-      <c r="AG36" s="12"/>
-      <c r="AH36" s="12"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="85" t="s">
         <v>596</v>
       </c>
@@ -13470,46 +13470,46 @@
         <v>591</v>
       </c>
       <c r="H37" s="198"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
       <c r="AA37" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB37" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="AC37" s="12"/>
+      <c r="AC37" s="13"/>
       <c r="AD37" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE37" s="205" t="n">
         <v>5</v>
       </c>
-      <c r="AF37" s="12"/>
-      <c r="AG37" s="12"/>
-      <c r="AH37" s="12"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="85" t="s">
         <v>598</v>
       </c>
@@ -13520,46 +13520,46 @@
         <v>591</v>
       </c>
       <c r="H38" s="198"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
       <c r="AA38" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB38" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="AC38" s="12"/>
+      <c r="AC38" s="13"/>
       <c r="AD38" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE38" s="205" t="n">
         <v>5</v>
       </c>
-      <c r="AF38" s="12"/>
-      <c r="AG38" s="12"/>
-      <c r="AH38" s="12"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="85" t="s">
         <v>600</v>
       </c>
@@ -13568,46 +13568,46 @@
       </c>
       <c r="G39" s="35"/>
       <c r="H39" s="198"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
       <c r="AA39" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB39" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="AC39" s="12"/>
+      <c r="AC39" s="13"/>
       <c r="AD39" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE39" s="205" t="n">
         <v>4.5</v>
       </c>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="12"/>
-      <c r="AH39" s="12"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
       <c r="E40" s="85" t="s">
         <v>602</v>
       </c>
@@ -13616,46 +13616,46 @@
       </c>
       <c r="G40" s="35"/>
       <c r="H40" s="198"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
       <c r="AA40" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB40" s="84" t="n">
         <v>2.5</v>
       </c>
-      <c r="AC40" s="12"/>
+      <c r="AC40" s="13"/>
       <c r="AD40" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE40" s="205" t="n">
         <v>4</v>
       </c>
-      <c r="AF40" s="12"/>
-      <c r="AG40" s="12"/>
-      <c r="AH40" s="12"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="85" t="s">
         <v>604</v>
       </c>
@@ -13664,46 +13664,46 @@
       </c>
       <c r="G41" s="35"/>
       <c r="H41" s="198"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
       <c r="AA41" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB41" s="84" t="n">
         <v>2.5</v>
       </c>
-      <c r="AC41" s="12"/>
+      <c r="AC41" s="13"/>
       <c r="AD41" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE41" s="205" t="n">
         <v>4</v>
       </c>
-      <c r="AF41" s="12"/>
-      <c r="AG41" s="12"/>
-      <c r="AH41" s="12"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
       <c r="E42" s="85" t="s">
         <v>606</v>
       </c>
@@ -13712,44 +13712,44 @@
       </c>
       <c r="G42" s="35"/>
       <c r="H42" s="198"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
       <c r="AA42" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB42" s="84" t="n">
         <v>2.5</v>
       </c>
-      <c r="AC42" s="12"/>
+      <c r="AC42" s="13"/>
       <c r="AD42" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE42" s="205" t="n">
         <v>4</v>
       </c>
-      <c r="AF42" s="12"/>
-      <c r="AG42" s="12"/>
-      <c r="AH42" s="12"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="193" t="s">
         <v>608</v>
       </c>
@@ -13758,35 +13758,35 @@
       <c r="F43" s="85"/>
       <c r="G43" s="35"/>
       <c r="H43" s="198"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
       <c r="AA43" s="39"/>
       <c r="AB43" s="84"/>
-      <c r="AC43" s="12"/>
+      <c r="AC43" s="13"/>
       <c r="AD43" s="204"/>
       <c r="AE43" s="205"/>
-      <c r="AF43" s="12"/>
-      <c r="AG43" s="12"/>
-      <c r="AH43" s="12"/>
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="97"/>
       <c r="E44" s="85" t="s">
         <v>609</v>
@@ -13794,144 +13794,144 @@
       <c r="F44" s="85" t="s">
         <v>610</v>
       </c>
-      <c r="G44" s="12"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="198"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
       <c r="AA44" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB44" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="AC44" s="12"/>
+      <c r="AC44" s="13"/>
       <c r="AD44" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE44" s="205" t="n">
         <v>4.5</v>
       </c>
-      <c r="AF44" s="12"/>
-      <c r="AG44" s="12"/>
-      <c r="AH44" s="12"/>
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
       <c r="E45" s="85" t="s">
         <v>611</v>
       </c>
       <c r="F45" s="85" t="s">
         <v>612</v>
       </c>
-      <c r="G45" s="12"/>
+      <c r="G45" s="13"/>
       <c r="H45" s="198"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="12"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
       <c r="AA45" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB45" s="84" t="n">
         <v>3.5</v>
       </c>
-      <c r="AC45" s="12"/>
+      <c r="AC45" s="13"/>
       <c r="AD45" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE45" s="205" t="n">
         <v>6</v>
       </c>
-      <c r="AF45" s="12"/>
-      <c r="AG45" s="12"/>
-      <c r="AH45" s="12"/>
+      <c r="AF45" s="13"/>
+      <c r="AG45" s="13"/>
+      <c r="AH45" s="13"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
       <c r="E46" s="85" t="s">
         <v>613</v>
       </c>
       <c r="F46" s="85" t="s">
         <v>614</v>
       </c>
-      <c r="G46" s="12"/>
+      <c r="G46" s="13"/>
       <c r="H46" s="198"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="12"/>
-      <c r="V46" s="12"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="12"/>
-      <c r="Y46" s="12"/>
-      <c r="Z46" s="12"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
+      <c r="Z46" s="13"/>
       <c r="AA46" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB46" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="AC46" s="12"/>
+      <c r="AC46" s="13"/>
       <c r="AD46" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE46" s="205" t="n">
         <v>4.5</v>
       </c>
-      <c r="AF46" s="12"/>
-      <c r="AG46" s="12"/>
-      <c r="AH46" s="12"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
       <c r="E47" s="85" t="s">
         <v>615</v>
       </c>
@@ -13942,271 +13942,271 @@
         <v>617</v>
       </c>
       <c r="H47" s="198"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="12"/>
-      <c r="V47" s="12"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="12"/>
-      <c r="Y47" s="12"/>
-      <c r="Z47" s="12"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
       <c r="AA47" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB47" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="AC47" s="12"/>
+      <c r="AC47" s="13"/>
       <c r="AD47" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE47" s="205" t="n">
         <v>4.5</v>
       </c>
-      <c r="AF47" s="12"/>
-      <c r="AG47" s="12"/>
-      <c r="AH47" s="12"/>
+      <c r="AF47" s="13"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
       <c r="E48" s="85" t="s">
         <v>618</v>
       </c>
       <c r="F48" s="85" t="s">
         <v>619</v>
       </c>
-      <c r="G48" s="12"/>
+      <c r="G48" s="13"/>
       <c r="H48" s="198"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="12"/>
-      <c r="V48" s="12"/>
-      <c r="W48" s="12"/>
-      <c r="X48" s="12"/>
-      <c r="Y48" s="12"/>
-      <c r="Z48" s="12"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
       <c r="AA48" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB48" s="84" t="n">
         <v>3</v>
       </c>
-      <c r="AC48" s="12"/>
+      <c r="AC48" s="13"/>
       <c r="AD48" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE48" s="205" t="n">
         <v>4.5</v>
       </c>
-      <c r="AF48" s="12"/>
-      <c r="AG48" s="12"/>
-      <c r="AH48" s="12"/>
+      <c r="AF48" s="13"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
       <c r="E49" s="85" t="s">
         <v>620</v>
       </c>
       <c r="F49" s="85" t="s">
         <v>621</v>
       </c>
-      <c r="G49" s="12"/>
+      <c r="G49" s="13"/>
       <c r="H49" s="198"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="12"/>
-      <c r="Z49" s="12"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
       <c r="AA49" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB49" s="84" t="n">
         <v>2.5</v>
       </c>
-      <c r="AC49" s="12"/>
+      <c r="AC49" s="13"/>
       <c r="AD49" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE49" s="205" t="n">
         <v>4</v>
       </c>
-      <c r="AF49" s="12"/>
-      <c r="AG49" s="12"/>
-      <c r="AH49" s="12"/>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="13"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
       <c r="E50" s="85" t="s">
         <v>622</v>
       </c>
       <c r="F50" s="85" t="s">
         <v>623</v>
       </c>
-      <c r="G50" s="12"/>
+      <c r="G50" s="13"/>
       <c r="H50" s="198"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="12"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="12"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
       <c r="AA50" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB50" s="84" t="n">
         <v>2.5</v>
       </c>
-      <c r="AC50" s="12"/>
+      <c r="AC50" s="13"/>
       <c r="AD50" s="204" t="s">
         <v>535</v>
       </c>
       <c r="AE50" s="205" t="n">
         <v>4</v>
       </c>
-      <c r="AF50" s="12"/>
-      <c r="AG50" s="12"/>
-      <c r="AH50" s="12"/>
+      <c r="AF50" s="13"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="193" t="s">
         <v>624</v>
       </c>
       <c r="D51" s="193"/>
       <c r="E51" s="85"/>
       <c r="F51" s="85"/>
-      <c r="G51" s="12"/>
+      <c r="G51" s="13"/>
       <c r="H51" s="198"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
       <c r="AA51" s="39"/>
       <c r="AB51" s="84"/>
-      <c r="AC51" s="12"/>
+      <c r="AC51" s="13"/>
       <c r="AD51" s="204"/>
       <c r="AE51" s="205"/>
-      <c r="AF51" s="12"/>
-      <c r="AG51" s="12"/>
-      <c r="AH51" s="12"/>
+      <c r="AF51" s="13"/>
+      <c r="AG51" s="13"/>
+      <c r="AH51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="97"/>
-      <c r="C52" s="12"/>
+      <c r="C52" s="13"/>
       <c r="E52" s="85" t="s">
         <v>440</v>
       </c>
       <c r="F52" s="85" t="s">
         <v>441</v>
       </c>
-      <c r="G52" s="12"/>
+      <c r="G52" s="13"/>
       <c r="H52" s="198"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="12"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-      <c r="Z52" s="12"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="13"/>
+      <c r="Z52" s="13"/>
       <c r="AA52" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB52" s="84" t="n">
         <v>3.5</v>
       </c>
-      <c r="AC52" s="12"/>
-      <c r="AD52" s="12"/>
+      <c r="AC52" s="13"/>
+      <c r="AD52" s="13"/>
       <c r="AE52" s="205"/>
-      <c r="AF52" s="12"/>
-      <c r="AG52" s="12"/>
-      <c r="AH52" s="12"/>
+      <c r="AF52" s="13"/>
+      <c r="AG52" s="13"/>
+      <c r="AH52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
       <c r="E53" s="85" t="s">
         <v>625</v>
       </c>
@@ -14217,44 +14217,44 @@
         <v>627</v>
       </c>
       <c r="H53" s="198"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
       <c r="M53" s="83" t="n">
         <v>1</v>
       </c>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="12"/>
-      <c r="Z53" s="12"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="13"/>
+      <c r="Z53" s="13"/>
       <c r="AA53" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB53" s="84" t="n">
         <v>3.5</v>
       </c>
-      <c r="AC53" s="12"/>
-      <c r="AD53" s="12"/>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="13"/>
       <c r="AE53" s="205"/>
-      <c r="AF53" s="12"/>
-      <c r="AG53" s="12"/>
-      <c r="AH53" s="12"/>
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="13"/>
+      <c r="AH53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
       <c r="E54" s="85" t="s">
         <v>628</v>
       </c>
@@ -14265,44 +14265,44 @@
         <v>630</v>
       </c>
       <c r="H54" s="198"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
       <c r="M54" s="83" t="n">
         <v>1</v>
       </c>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
-      <c r="Z54" s="12"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
       <c r="AA54" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB54" s="84" t="n">
         <v>4</v>
       </c>
-      <c r="AC54" s="12"/>
-      <c r="AD54" s="12"/>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="13"/>
       <c r="AE54" s="205"/>
-      <c r="AF54" s="12"/>
-      <c r="AG54" s="12"/>
-      <c r="AH54" s="12"/>
+      <c r="AF54" s="13"/>
+      <c r="AG54" s="13"/>
+      <c r="AH54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
       <c r="E55" s="85" t="s">
         <v>631</v>
       </c>
@@ -14313,44 +14313,44 @@
         <v>633</v>
       </c>
       <c r="H55" s="198"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
       <c r="M55" s="83" t="n">
         <v>1</v>
       </c>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12"/>
-      <c r="V55" s="12"/>
-      <c r="W55" s="12"/>
-      <c r="X55" s="12"/>
-      <c r="Y55" s="12"/>
-      <c r="Z55" s="12"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="13"/>
+      <c r="Z55" s="13"/>
       <c r="AA55" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB55" s="84" t="n">
         <v>3.5</v>
       </c>
-      <c r="AC55" s="12"/>
-      <c r="AD55" s="12"/>
+      <c r="AC55" s="13"/>
+      <c r="AD55" s="13"/>
       <c r="AE55" s="205"/>
-      <c r="AF55" s="12"/>
-      <c r="AG55" s="12"/>
-      <c r="AH55" s="12"/>
+      <c r="AF55" s="13"/>
+      <c r="AG55" s="13"/>
+      <c r="AH55" s="13"/>
     </row>
     <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
       <c r="E56" s="61" t="s">
         <v>634</v>
       </c>
@@ -14361,43 +14361,43 @@
         <v>636</v>
       </c>
       <c r="H56" s="198"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
       <c r="M56" s="83" t="n">
         <v>1</v>
       </c>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="12"/>
-      <c r="Y56" s="12"/>
-      <c r="Z56" s="12"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
       <c r="AA56" s="39" t="s">
         <v>442</v>
       </c>
       <c r="AB56" s="44" t="n">
         <v>4</v>
       </c>
-      <c r="AC56" s="12"/>
-      <c r="AD56" s="12"/>
+      <c r="AC56" s="13"/>
+      <c r="AD56" s="13"/>
       <c r="AE56" s="205"/>
-      <c r="AF56" s="12"/>
-      <c r="AG56" s="12"/>
-      <c r="AH56" s="12"/>
+      <c r="AF56" s="13"/>
+      <c r="AG56" s="13"/>
+      <c r="AH56" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/excel/DATABASE_MENU_VENDITA_BACKUP_INVERNO.xlsx
+++ b/excel/DATABASE_MENU_VENDITA_BACKUP_INVERNO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LA BIRRERIA" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="642">
   <si>
     <t xml:space="preserve">macro-category:</t>
   </si>
@@ -1935,6 +1935,21 @@
   </si>
   <si>
     <t xml:space="preserve">Kahlua, Baileys, Triple Sec e… FUOCO!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VINO 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vino_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiacchiere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vino_1_ref</t>
   </si>
 </sst>
 </file>
@@ -3384,7 +3399,7 @@
   <dimension ref="A1:AH50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA13" activeCellId="1" sqref="21:22 AA13"/>
+      <selection pane="topLeft" activeCell="AA13" activeCellId="0" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4996,8 +5011,8 @@
   </sheetPr>
   <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="21:22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D37" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6797,7 +6812,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AB16" activeCellId="1" sqref="21:22 AB16"/>
+      <selection pane="bottomLeft" activeCell="AB16" activeCellId="0" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8813,7 +8828,7 @@
   <dimension ref="A1:AN1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="1" sqref="21:22 E16"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11659,10 +11674,10 @@
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH56"/>
+  <dimension ref="A1:AH58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH52" activeCellId="1" sqref="21:22 AH52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14394,6 +14409,43 @@
       <c r="AG56" s="13"/>
       <c r="AH56" s="13"/>
     </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="T58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA58" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB58" s="226" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD58" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AE58" s="226" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
